--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理行政一审案件收结案情况/人民法院审理行政一审案件结案件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理行政一审案件收结案情况/人民法院审理行政一审案件结案件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,919 +503,553 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3656</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2629</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10732</v>
+      </c>
+      <c r="E2" t="n">
+        <v>41973</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9387</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1869</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23372</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25016</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2743</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1894</v>
+      </c>
+      <c r="L2" t="n">
+        <v>402</v>
+      </c>
       <c r="M2" t="n">
-        <v>86614</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>129806</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6133</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3249</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2447</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10137</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43574</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11090</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1835</v>
+      </c>
+      <c r="H3" t="n">
+        <v>24927</v>
+      </c>
+      <c r="I3" t="n">
+        <v>24898</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3156</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2220</v>
+      </c>
+      <c r="L3" t="n">
+        <v>399</v>
+      </c>
       <c r="M3" t="n">
-        <v>95984</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>136361</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8429</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5130</v>
+        <v>2322</v>
       </c>
       <c r="C4" t="n">
-        <v>2192</v>
+        <v>2480</v>
       </c>
       <c r="D4" t="n">
-        <v>11716</v>
+        <v>10665</v>
       </c>
       <c r="E4" t="n">
-        <v>25430</v>
+        <v>40611</v>
       </c>
       <c r="F4" t="n">
-        <v>3362</v>
+        <v>11484</v>
       </c>
       <c r="G4" t="n">
-        <v>1064</v>
+        <v>1030</v>
       </c>
       <c r="H4" t="n">
-        <v>13506</v>
+        <v>20104</v>
       </c>
       <c r="I4" t="n">
-        <v>15672</v>
+        <v>23337</v>
       </c>
       <c r="J4" t="n">
-        <v>2928</v>
+        <v>4192</v>
       </c>
       <c r="K4" t="n">
-        <v>1075</v>
+        <v>1673</v>
       </c>
       <c r="L4" t="n">
-        <v>1482</v>
+        <v>384</v>
       </c>
       <c r="M4" t="n">
-        <v>84943</v>
+        <v>128625</v>
       </c>
       <c r="N4" t="n">
-        <v>1386</v>
+        <v>10343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5031</v>
+        <v>2062</v>
       </c>
       <c r="C5" t="n">
-        <v>2610</v>
+        <v>2509</v>
       </c>
       <c r="D5" t="n">
-        <v>10950</v>
+        <v>10231</v>
       </c>
       <c r="E5" t="n">
-        <v>22666</v>
+        <v>42506</v>
       </c>
       <c r="F5" t="n">
-        <v>4060</v>
+        <v>11445</v>
       </c>
       <c r="G5" t="n">
-        <v>801</v>
+        <v>906</v>
       </c>
       <c r="H5" t="n">
-        <v>16804</v>
+        <v>17957</v>
       </c>
       <c r="I5" t="n">
-        <v>19793</v>
+        <v>19722</v>
       </c>
       <c r="J5" t="n">
-        <v>2719</v>
+        <v>3701</v>
       </c>
       <c r="K5" t="n">
-        <v>619</v>
+        <v>1090</v>
       </c>
       <c r="L5" t="n">
-        <v>816</v>
+        <v>393</v>
       </c>
       <c r="M5" t="n">
-        <v>88050</v>
+        <v>120675</v>
       </c>
       <c r="N5" t="n">
-        <v>1181</v>
+        <v>8153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4794</v>
+        <v>2324</v>
       </c>
       <c r="C6" t="n">
-        <v>3375</v>
+        <v>2043</v>
       </c>
       <c r="D6" t="n">
-        <v>11247</v>
+        <v>13829</v>
       </c>
       <c r="E6" t="n">
-        <v>22944</v>
+        <v>50191</v>
       </c>
       <c r="F6" t="n">
-        <v>5496</v>
+        <v>12002</v>
       </c>
       <c r="G6" t="n">
-        <v>1400</v>
+        <v>599</v>
       </c>
       <c r="H6" t="n">
-        <v>17390</v>
+        <v>18658</v>
       </c>
       <c r="I6" t="n">
-        <v>18970</v>
+        <v>20860</v>
       </c>
       <c r="J6" t="n">
-        <v>3381</v>
+        <v>4268</v>
       </c>
       <c r="K6" t="n">
-        <v>698</v>
+        <v>792</v>
       </c>
       <c r="L6" t="n">
-        <v>1041</v>
+        <v>389</v>
       </c>
       <c r="M6" t="n">
-        <v>92192</v>
+        <v>130964</v>
       </c>
       <c r="N6" t="n">
-        <v>1456</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3953</v>
+        <v>4741</v>
       </c>
       <c r="C7" t="n">
-        <v>3011</v>
+        <v>2974</v>
       </c>
       <c r="D7" t="n">
-        <v>9602</v>
+        <v>22714</v>
       </c>
       <c r="E7" t="n">
-        <v>24970</v>
+        <v>89175</v>
       </c>
       <c r="F7" t="n">
-        <v>7152</v>
+        <v>15051</v>
       </c>
       <c r="G7" t="n">
-        <v>951</v>
+        <v>690</v>
       </c>
       <c r="H7" t="n">
-        <v>18835</v>
+        <v>25055</v>
       </c>
       <c r="I7" t="n">
-        <v>18864</v>
+        <v>30817</v>
       </c>
       <c r="J7" t="n">
-        <v>2979</v>
+        <v>3832</v>
       </c>
       <c r="K7" t="n">
-        <v>1220</v>
+        <v>986</v>
       </c>
       <c r="L7" t="n">
-        <v>828</v>
+        <v>565</v>
       </c>
       <c r="M7" t="n">
-        <v>95707</v>
+        <v>198772</v>
       </c>
       <c r="N7" t="n">
-        <v>3342</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2806</v>
+        <v>6006</v>
       </c>
       <c r="C8" t="n">
-        <v>3399</v>
+        <v>3226</v>
       </c>
       <c r="D8" t="n">
-        <v>9215</v>
+        <v>24179</v>
       </c>
       <c r="E8" t="n">
-        <v>23234</v>
+        <v>104135</v>
       </c>
       <c r="F8" t="n">
-        <v>7410</v>
+        <v>15443</v>
       </c>
       <c r="G8" t="n">
-        <v>1229</v>
+        <v>792</v>
       </c>
       <c r="H8" t="n">
-        <v>20643</v>
+        <v>27551</v>
       </c>
       <c r="I8" t="n">
-        <v>20334</v>
+        <v>35845</v>
       </c>
       <c r="J8" t="n">
-        <v>2961</v>
+        <v>4437</v>
       </c>
       <c r="K8" t="n">
-        <v>1183</v>
+        <v>1255</v>
       </c>
       <c r="L8" t="n">
-        <v>356</v>
+        <v>647</v>
       </c>
       <c r="M8" t="n">
-        <v>95052</v>
+        <v>225020</v>
       </c>
       <c r="N8" t="n">
-        <v>2282</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2711</v>
+        <v>6912</v>
       </c>
       <c r="C9" t="n">
-        <v>4129</v>
+        <v>1705</v>
       </c>
       <c r="D9" t="n">
-        <v>9750</v>
+        <v>21011</v>
       </c>
       <c r="E9" t="n">
-        <v>26505</v>
+        <v>103944</v>
       </c>
       <c r="F9" t="n">
-        <v>7848</v>
+        <v>14424</v>
       </c>
       <c r="G9" t="n">
-        <v>1124</v>
+        <v>572</v>
       </c>
       <c r="H9" t="n">
-        <v>19705</v>
+        <v>25690</v>
       </c>
       <c r="I9" t="n">
-        <v>21052</v>
+        <v>34549</v>
       </c>
       <c r="J9" t="n">
-        <v>2904</v>
+        <v>4655</v>
       </c>
       <c r="K9" t="n">
-        <v>2584</v>
+        <v>959</v>
       </c>
       <c r="L9" t="n">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="M9" t="n">
-        <v>100683</v>
+        <v>229112</v>
       </c>
       <c r="N9" t="n">
-        <v>2061</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3653</v>
+        <v>8981</v>
       </c>
       <c r="C10" t="n">
-        <v>3628</v>
+        <v>1568</v>
       </c>
       <c r="D10" t="n">
-        <v>10455</v>
+        <v>19012</v>
       </c>
       <c r="E10" t="n">
-        <v>27421</v>
+        <v>135943</v>
       </c>
       <c r="F10" t="n">
-        <v>7843</v>
+        <v>15479</v>
       </c>
       <c r="G10" t="n">
-        <v>890</v>
+        <v>484</v>
       </c>
       <c r="H10" t="n">
-        <v>18892</v>
+        <v>28143</v>
       </c>
       <c r="I10" t="n">
-        <v>28672</v>
+        <v>34121</v>
       </c>
       <c r="J10" t="n">
-        <v>2968</v>
+        <v>5360</v>
       </c>
       <c r="K10" t="n">
-        <v>1601</v>
+        <v>1220</v>
       </c>
       <c r="L10" t="n">
-        <v>286</v>
+        <v>693</v>
       </c>
       <c r="M10" t="n">
-        <v>109085</v>
+        <v>251355</v>
       </c>
       <c r="N10" t="n">
-        <v>2776</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3543</v>
+        <v>14108</v>
       </c>
       <c r="C11" t="n">
-        <v>2529</v>
+        <v>2295</v>
       </c>
       <c r="D11" t="n">
-        <v>9563</v>
+        <v>21516</v>
       </c>
       <c r="E11" t="n">
-        <v>39249</v>
+        <v>138760</v>
       </c>
       <c r="F11" t="n">
-        <v>9126</v>
+        <v>19643</v>
       </c>
       <c r="G11" t="n">
-        <v>1483</v>
+        <v>855</v>
       </c>
       <c r="H11" t="n">
-        <v>21352</v>
+        <v>31011</v>
       </c>
       <c r="I11" t="n">
-        <v>22741</v>
+        <v>46531</v>
       </c>
       <c r="J11" t="n">
-        <v>3179</v>
+        <v>6346</v>
       </c>
       <c r="K11" t="n">
-        <v>2628</v>
+        <v>2291</v>
       </c>
       <c r="L11" t="n">
+        <v>663</v>
+      </c>
+      <c r="M11" t="n">
+        <v>284362</v>
+      </c>
+      <c r="N11" t="n">
         <v>343</v>
-      </c>
-      <c r="M11" t="n">
-        <v>120530</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4794</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3656</v>
+        <v>15637</v>
       </c>
       <c r="C12" t="n">
-        <v>2629</v>
+        <v>2801</v>
       </c>
       <c r="D12" t="n">
-        <v>10732</v>
+        <v>23531</v>
       </c>
       <c r="E12" t="n">
-        <v>41973</v>
+        <v>97669</v>
       </c>
       <c r="F12" t="n">
-        <v>9387</v>
+        <v>20027</v>
       </c>
       <c r="G12" t="n">
-        <v>1869</v>
+        <v>1158</v>
       </c>
       <c r="H12" t="n">
-        <v>23372</v>
+        <v>40810</v>
       </c>
       <c r="I12" t="n">
-        <v>25016</v>
+        <v>56100</v>
       </c>
       <c r="J12" t="n">
-        <v>2743</v>
+        <v>5553</v>
       </c>
       <c r="K12" t="n">
-        <v>1894</v>
+        <v>2062</v>
       </c>
       <c r="L12" t="n">
-        <v>402</v>
+        <v>694</v>
       </c>
       <c r="M12" t="n">
-        <v>129806</v>
+        <v>266312</v>
       </c>
       <c r="N12" t="n">
-        <v>6133</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3249</v>
+        <v>21828</v>
       </c>
       <c r="C13" t="n">
-        <v>2447</v>
+        <v>2853</v>
       </c>
       <c r="D13" t="n">
-        <v>10137</v>
+        <v>30278</v>
       </c>
       <c r="E13" t="n">
-        <v>43574</v>
+        <v>94813</v>
       </c>
       <c r="F13" t="n">
-        <v>11090</v>
+        <v>24314</v>
       </c>
       <c r="G13" t="n">
-        <v>1835</v>
+        <v>1284</v>
       </c>
       <c r="H13" t="n">
-        <v>24927</v>
+        <v>49126</v>
       </c>
       <c r="I13" t="n">
-        <v>24898</v>
+        <v>62753</v>
       </c>
       <c r="J13" t="n">
-        <v>3156</v>
+        <v>7312</v>
       </c>
       <c r="K13" t="n">
-        <v>2220</v>
+        <v>2702</v>
       </c>
       <c r="L13" t="n">
-        <v>399</v>
+        <v>923</v>
       </c>
       <c r="M13" t="n">
-        <v>136361</v>
+        <v>298301</v>
       </c>
       <c r="N13" t="n">
-        <v>8429</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2322</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2480</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10665</v>
-      </c>
-      <c r="E14" t="n">
-        <v>40611</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11484</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1030</v>
-      </c>
-      <c r="H14" t="n">
-        <v>20104</v>
-      </c>
-      <c r="I14" t="n">
-        <v>23337</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4192</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1673</v>
-      </c>
-      <c r="L14" t="n">
-        <v>384</v>
-      </c>
-      <c r="M14" t="n">
-        <v>128625</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10343</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2062</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2509</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10231</v>
-      </c>
-      <c r="E15" t="n">
-        <v>42506</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11445</v>
-      </c>
-      <c r="G15" t="n">
-        <v>906</v>
-      </c>
-      <c r="H15" t="n">
-        <v>17957</v>
-      </c>
-      <c r="I15" t="n">
-        <v>19722</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3701</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1090</v>
-      </c>
-      <c r="L15" t="n">
-        <v>393</v>
-      </c>
-      <c r="M15" t="n">
-        <v>120675</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8153</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2324</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2043</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13829</v>
-      </c>
-      <c r="E16" t="n">
-        <v>50191</v>
-      </c>
-      <c r="F16" t="n">
-        <v>12002</v>
-      </c>
-      <c r="G16" t="n">
-        <v>599</v>
-      </c>
-      <c r="H16" t="n">
-        <v>18658</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20860</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4268</v>
-      </c>
-      <c r="K16" t="n">
-        <v>792</v>
-      </c>
-      <c r="L16" t="n">
-        <v>389</v>
-      </c>
-      <c r="M16" t="n">
-        <v>130964</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5009</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4741</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2974</v>
-      </c>
-      <c r="D17" t="n">
-        <v>22714</v>
-      </c>
-      <c r="E17" t="n">
-        <v>89175</v>
-      </c>
-      <c r="F17" t="n">
-        <v>15051</v>
-      </c>
-      <c r="G17" t="n">
-        <v>690</v>
-      </c>
-      <c r="H17" t="n">
-        <v>25055</v>
-      </c>
-      <c r="I17" t="n">
-        <v>30817</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3832</v>
-      </c>
-      <c r="K17" t="n">
-        <v>986</v>
-      </c>
-      <c r="L17" t="n">
-        <v>565</v>
-      </c>
-      <c r="M17" t="n">
-        <v>198772</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6006</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3226</v>
-      </c>
-      <c r="D18" t="n">
-        <v>24179</v>
-      </c>
-      <c r="E18" t="n">
-        <v>104135</v>
-      </c>
-      <c r="F18" t="n">
-        <v>15443</v>
-      </c>
-      <c r="G18" t="n">
-        <v>792</v>
-      </c>
-      <c r="H18" t="n">
-        <v>27551</v>
-      </c>
-      <c r="I18" t="n">
-        <v>35845</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4437</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1255</v>
-      </c>
-      <c r="L18" t="n">
-        <v>647</v>
-      </c>
-      <c r="M18" t="n">
-        <v>225020</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6912</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1705</v>
-      </c>
-      <c r="D19" t="n">
-        <v>21011</v>
-      </c>
-      <c r="E19" t="n">
-        <v>103944</v>
-      </c>
-      <c r="F19" t="n">
-        <v>14424</v>
-      </c>
-      <c r="G19" t="n">
-        <v>572</v>
-      </c>
-      <c r="H19" t="n">
-        <v>25690</v>
-      </c>
-      <c r="I19" t="n">
-        <v>34549</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4655</v>
-      </c>
-      <c r="K19" t="n">
-        <v>959</v>
-      </c>
-      <c r="L19" t="n">
-        <v>540</v>
-      </c>
-      <c r="M19" t="n">
-        <v>229112</v>
-      </c>
-      <c r="N19" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>8981</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1568</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19012</v>
-      </c>
-      <c r="E20" t="n">
-        <v>135943</v>
-      </c>
-      <c r="F20" t="n">
-        <v>15479</v>
-      </c>
-      <c r="G20" t="n">
-        <v>484</v>
-      </c>
-      <c r="H20" t="n">
-        <v>28143</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34121</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5360</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1220</v>
-      </c>
-      <c r="L20" t="n">
-        <v>693</v>
-      </c>
-      <c r="M20" t="n">
-        <v>251355</v>
-      </c>
-      <c r="N20" t="n">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>14108</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2295</v>
-      </c>
-      <c r="D21" t="n">
-        <v>21516</v>
-      </c>
-      <c r="E21" t="n">
-        <v>138760</v>
-      </c>
-      <c r="F21" t="n">
-        <v>19643</v>
-      </c>
-      <c r="G21" t="n">
-        <v>855</v>
-      </c>
-      <c r="H21" t="n">
-        <v>31011</v>
-      </c>
-      <c r="I21" t="n">
-        <v>46531</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6346</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2291</v>
-      </c>
-      <c r="L21" t="n">
-        <v>663</v>
-      </c>
-      <c r="M21" t="n">
-        <v>284362</v>
-      </c>
-      <c r="N21" t="n">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>15637</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2801</v>
-      </c>
-      <c r="D22" t="n">
-        <v>23531</v>
-      </c>
-      <c r="E22" t="n">
-        <v>97669</v>
-      </c>
-      <c r="F22" t="n">
-        <v>20027</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1158</v>
-      </c>
-      <c r="H22" t="n">
-        <v>40810</v>
-      </c>
-      <c r="I22" t="n">
-        <v>56100</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5553</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2062</v>
-      </c>
-      <c r="L22" t="n">
-        <v>694</v>
-      </c>
-      <c r="M22" t="n">
-        <v>266312</v>
-      </c>
-      <c r="N22" t="n">
-        <v>270</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
